--- a/perguntas_e_respostas_usuario.xlsx
+++ b/perguntas_e_respostas_usuario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,28 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A terra passou por mudanças na sua formação?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">E aí, galera! A Terra, nosso planeta, não nasceu do jeito que a gente conhece hoje. Ela passou por uma transformação épica, como um filme de ficção científica! 
+**Imagine só:** há bilhões de anos, a Terra era uma bola de fogo derretida, cheia de poeira e gás, resultado de um monte de rochas e poeira espacial que se juntaram. Com o tempo, essa bola de fogo foi esfriando, se solidificando e formando uma crosta, como uma casca de ovo. Mas essa crosta não era lisa, não! Ela estava cheia de vulcões que vomitavam lava e gases, formando as primeiras montanhas e continentes.
+**E as mudanças não pararam por aí!** A Terra foi bombardeada por asteroides e cometas, o que fez com que ela mudasse de forma e até criasse oceanos. Esses oceanos, por sua vez, foram responsáveis por moldar a vida na Terra, já que a água é essencial para a vida como a conhecemos.
+**Então, a Terra é como um ser vivo que está em constante transformação!** Desde a sua formação até hoje, ela passou por diversas mudanças, e continua mudando até agora, com vulcões, terremotos, erosão e até a ação do homem. 
+**É incrível pensar que o planeta que a gente conhece hoje passou por uma jornada tão longa e complexa, né?** E pensar que a gente é parte dessa história!  
+</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-08-12 17:53:05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
